--- a/bin/Debug/netcoreapp3.1/Table/测试表格.xlsx
+++ b/bin/Debug/netcoreapp3.1/Table/测试表格.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="t_test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="t_testTable" sheetId="1" r:id="rId1"/>
+    <sheet name="t_languageTable" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang</t>
+    <t>textformat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言包ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exprot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导表工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,18 +478,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -461,7 +517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -475,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -489,7 +545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -512,12 +568,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -529,7 +673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/Debug/netcoreapp3.1/Table/测试表格.xlsx
+++ b/bin/Debug/netcoreapp3.1/Table/测试表格.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94116376-DEC7-45AC-AB4D-66B3B4909BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t_testTable" sheetId="1" r:id="rId1"/>
+    <sheet name="t_test" sheetId="1" r:id="rId1"/>
     <sheet name="t_languageTable" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,13 +128,21 @@
   </si>
   <si>
     <t>语言包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +274,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,21 +518,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -517,7 +560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -531,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -545,7 +588,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -567,21 +610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -589,76 +632,103 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>213323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5645656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5645656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5645656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5645656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5645656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
+      </c>
+      <c r="C11">
+        <v>5645656</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
